--- a/sulamericana/datasets_sula/3_resultados_semi_sula.xlsx
+++ b/sulamericana/datasets_sula/3_resultados_semi_sula.xlsx
@@ -517,8 +517,14 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
+      <c r="D2">
+        <v>73.2001953125</v>
+      </c>
       <c r="E2" t="s">
         <v>8</v>
+      </c>
+      <c r="F2">
+        <v>92.3701171875</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -531,8 +537,14 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
+      <c r="D3">
+        <v>82.580078125</v>
+      </c>
       <c r="E3" t="s">
         <v>9</v>
+      </c>
+      <c r="F3">
+        <v>105.5</v>
       </c>
     </row>
   </sheetData>
